--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Fallo Cardiaco (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Fallo Cardiaco (INC).xlsx
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.190241653143763</v>
+        <v>3.190241653143765</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02757599559424481</v>
+        <v>0.02757599559424478</v>
       </c>
       <c r="C3" t="n">
         <v>13.41149298136574</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.432140469794512</v>
+        <v>4.432140469794513</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01060409940556908</v>
+        <v>0.01060409940556906</v>
       </c>
       <c r="C4" t="n">
         <v>17.57529676520589</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.605383589859893</v>
+        <v>3.605383589859894</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04709259662743789</v>
+        <v>0.04709259662743787</v>
       </c>
       <c r="C5" t="n">
         <v>14.568723447434</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.333648946302269</v>
+        <v>6.33364894630227</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07491472258334594</v>
+        <v>0.0749147225833459</v>
       </c>
       <c r="C6" t="n">
         <v>23.85644265009464</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13.35911163330758</v>
+        <v>13.35911163330757</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221182405590371</v>
+        <v>0.2211824055903711</v>
       </c>
       <c r="C8" t="n">
         <v>49.13806713107953</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.150675814466081</v>
+        <v>6.150675814466082</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09982816727785805</v>
+        <v>0.09982816727785804</v>
       </c>
       <c r="C9" t="n">
         <v>23.53215835169129</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.60357935644846</v>
+        <v>13.60357935644845</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2829483239236306</v>
+        <v>0.2829483239236307</v>
       </c>
       <c r="C10" t="n">
         <v>50.09817876605985</v>
@@ -576,7 +576,7 @@
         <v>12.95979560835002</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2945233764509873</v>
+        <v>0.2945233764509874</v>
       </c>
       <c r="C13" t="n">
         <v>47.41588974669129</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.020525526576022</v>
+        <v>4.020525526576024</v>
       </c>
       <c r="B15" t="n">
-        <v>0.066609197660631</v>
+        <v>0.06660919766063095</v>
       </c>
       <c r="C15" t="n">
         <v>15.72595391350226</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.358246782824145</v>
+        <v>6.358246782824146</v>
       </c>
       <c r="B16" t="n">
         <v>0.1095864677944546</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.002988617930084</v>
+        <v>8.002988617930086</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09479530003341761</v>
+        <v>0.09479530003341757</v>
       </c>
       <c r="C17" t="n">
         <v>29.30464236731845</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.407542633272636</v>
+        <v>4.407542633272637</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02406764580553958</v>
+        <v>-0.02406764580553963</v>
       </c>
       <c r="C18" t="n">
         <v>17.3209658305751</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.748790883018398</v>
+        <v>6.748790883018399</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09443132361653904</v>
+        <v>0.09443132361653898</v>
       </c>
       <c r="C20" t="n">
         <v>25.0136731161629</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.287022179748647</v>
+        <v>5.287022179748648</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0843090466830639</v>
+        <v>0.08430904668306385</v>
       </c>
       <c r="C21" t="n">
         <v>20.14408863197321</v>
@@ -675,7 +675,7 @@
         <v>13.82344924306746</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3100424970457814</v>
+        <v>0.3100424970457815</v>
       </c>
       <c r="C22" t="n">
         <v>50.80395946640937</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.178900821890334</v>
+        <v>4.178900821890337</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007024007755010248</v>
+        <v>0.007024007755010164</v>
       </c>
       <c r="C23" t="n">
         <v>15.79590727727481</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.370545701085083</v>
+        <v>6.370545701085084</v>
       </c>
       <c r="B24" t="n">
         <v>0.1269223404000089</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.930805927847078</v>
+        <v>5.930805927847079</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07273399415570718</v>
+        <v>0.07273399415570715</v>
       </c>
       <c r="C25" t="n">
         <v>22.82637765134177</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.237826506704894</v>
+        <v>5.237826506704897</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01496555626084661</v>
+        <v>0.01496555626084653</v>
       </c>
       <c r="C26" t="n">
         <v>19.63542676271163</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.720565875594145</v>
+        <v>8.720565875594144</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1872354831393868</v>
+        <v>0.1872354831393869</v>
       </c>
       <c r="C28" t="n">
         <v>32.74992419057939</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.386471790248399</v>
+        <v>4.386471790248401</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01678230827160679</v>
+        <v>0.01678230827160671</v>
       </c>
       <c r="C29" t="n">
         <v>16.37452251030894</v>
@@ -796,7 +796,7 @@
         <v>11.4734290685584</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2497293543064035</v>
+        <v>0.2497293543064036</v>
       </c>
       <c r="C33" t="n">
         <v>42.29197432787081</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.56581775118221</v>
+        <v>6.565817751182211</v>
       </c>
       <c r="B35" t="n">
         <v>0.1193447683110511</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.469995311584835</v>
+        <v>5.469995311584837</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0593956019885518</v>
+        <v>0.05939560198855173</v>
       </c>
       <c r="C37" t="n">
         <v>20.46837293037655</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.847282406510641</v>
+        <v>4.847282406510643</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03012070043876217</v>
+        <v>0.03012070043876211</v>
       </c>
       <c r="C40" t="n">
-        <v>18.73252723127415</v>
+        <v>18.73252723127416</v>
       </c>
     </row>
     <row r="41">
@@ -884,7 +884,7 @@
         <v>8.256228265834263</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09837539168397644</v>
+        <v>0.09837539168397645</v>
       </c>
       <c r="C41" t="n">
         <v>31.08403185524954</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7.79541764957202</v>
+        <v>7.795417649572022</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08503699951682107</v>
+        <v>0.08503699951682103</v>
       </c>
       <c r="C43" t="n">
         <v>28.72602713428432</v>
@@ -917,7 +917,7 @@
         <v>9.57192059205064</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1854187311286266</v>
+        <v>0.1854187311286267</v>
       </c>
       <c r="C44" t="n">
         <v>36.01082844298207</v>
@@ -961,7 +961,7 @@
         <v>8.027586454451962</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1294670452445263</v>
+        <v>0.1294670452445262</v>
       </c>
       <c r="C48" t="n">
         <v>29.55897330194924</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.676608192935391</v>
+        <v>4.676608192935392</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07237001773882859</v>
+        <v>0.07237001773882858</v>
       </c>
       <c r="C49" t="n">
         <v>18.53540840018621</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.494593148106711</v>
+        <v>5.494593148106713</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09406734719966045</v>
+        <v>0.09406734719966039</v>
       </c>
       <c r="C50" t="n">
         <v>20.72270386500734</v>
@@ -991,13 +991,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.165643816621888</v>
+        <v>3.165643816621889</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00709574961686385</v>
+        <v>-0.007095749616863878</v>
       </c>
       <c r="C51" t="n">
-        <v>13.15716204673495</v>
+        <v>13.15716204673494</v>
       </c>
     </row>
     <row r="52">
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8.210559586288149</v>
+        <v>8.21055958628815</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1045536005500142</v>
+        <v>0.1045536005500141</v>
       </c>
       <c r="C53" t="n">
         <v>29.88325760035259</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.995927690054145</v>
+        <v>3.995927690054148</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03193745244952234</v>
+        <v>0.03193745244952229</v>
       </c>
       <c r="C54" t="n">
         <v>15.47162297887147</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.274723261487709</v>
+        <v>5.27472326148771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06697317407750958</v>
+        <v>0.06697317407750954</v>
       </c>
       <c r="C55" t="n">
         <v>20.01692316465781</v>
@@ -1060,7 +1060,7 @@
         <v>12.33708270327583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2652484749011976</v>
+        <v>0.2652484749011977</v>
       </c>
       <c r="C57" t="n">
         <v>45.68004404758889</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.457696393323896</v>
+        <v>5.457696393323899</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04205972938299748</v>
+        <v>0.0420597293829974</v>
       </c>
       <c r="C58" t="n">
-        <v>20.34120746306115</v>
+        <v>20.34120746306116</v>
       </c>
     </row>
     <row r="59">
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.215797576673149</v>
+        <v>4.21579757667315</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05903162557167321</v>
+        <v>0.05903162557167316</v>
       </c>
       <c r="C60" t="n">
         <v>16.17740367922099</v>
@@ -1104,7 +1104,7 @@
         <v>11.66870111865552</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2421517822174457</v>
+        <v>0.2421517822174458</v>
       </c>
       <c r="C61" t="n">
         <v>42.74342409358955</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10.19463349712484</v>
+        <v>10.19463349712483</v>
       </c>
       <c r="B62" t="n">
         <v>0.2146936326784163</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.203498658412211</v>
+        <v>4.203498658412212</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04169575296611888</v>
+        <v>0.04169575296611881</v>
       </c>
       <c r="C64" t="n">
         <v>16.0502382119056</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.086512139266521</v>
+        <v>9.086512139266523</v>
       </c>
       <c r="B67" t="n">
         <v>0.1374085937503626</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.091750129651521</v>
+        <v>5.091750129651522</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09188661877202167</v>
+        <v>0.09188661877202164</v>
       </c>
       <c r="C68" t="n">
         <v>19.69263886625448</v>
@@ -1192,7 +1192,7 @@
         <v>14.03102021142552</v>
       </c>
       <c r="B69" t="n">
-        <v>0.319800797562378</v>
+        <v>0.3198007975623781</v>
       </c>
       <c r="C69" t="n">
         <v>51.38257469944351</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.834983488249703</v>
+        <v>4.834983488249705</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01278482783320783</v>
+        <v>0.01278482783320778</v>
       </c>
       <c r="C70" t="n">
         <v>18.60536176395876</v>
